--- a/ResultsCARNIVAL_VN1203vsNS1_for_7hr/VN1203vsNS1_for_7hr_HostVirus.xlsx
+++ b/ResultsCARNIVAL_VN1203vsNS1_for_7hr/VN1203vsNS1_for_7hr_HostVirus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="281">
   <si>
     <t>activity</t>
   </si>
@@ -23,24 +23,225 @@
     <t>nodetype</t>
   </si>
   <si>
+    <t>PRKACA</t>
+  </si>
+  <si>
+    <t>CREB3</t>
+  </si>
+  <si>
+    <t>CBFA2T3</t>
+  </si>
+  <si>
+    <t>MAPK14</t>
+  </si>
+  <si>
+    <t>ATF2</t>
+  </si>
+  <si>
+    <t>CEBPB</t>
+  </si>
+  <si>
+    <t>ETS1</t>
+  </si>
+  <si>
+    <t>MEF2B</t>
+  </si>
+  <si>
+    <t>MAPK3</t>
+  </si>
+  <si>
+    <t>GABPA</t>
+  </si>
+  <si>
+    <t>E2F1</t>
+  </si>
+  <si>
+    <t>RUNX2</t>
+  </si>
+  <si>
+    <t>MED1</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
+    <t>PAK1</t>
+  </si>
+  <si>
+    <t>STAT6</t>
+  </si>
+  <si>
+    <t>NRF1</t>
+  </si>
+  <si>
+    <t>ARNT</t>
+  </si>
+  <si>
+    <t>MTA1</t>
+  </si>
+  <si>
+    <t>BCL11A</t>
+  </si>
+  <si>
+    <t>ELF3</t>
+  </si>
+  <si>
+    <t>CDK1</t>
+  </si>
+  <si>
+    <t>CUX1</t>
+  </si>
+  <si>
+    <t>ATF3</t>
+  </si>
+  <si>
+    <t>SFPQ</t>
+  </si>
+  <si>
+    <t>NONO</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
+    <t>NFE2L1</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>TAF1</t>
+  </si>
+  <si>
+    <t>IRF9</t>
+  </si>
+  <si>
+    <t>E2F4</t>
+  </si>
+  <si>
+    <t>YAP1</t>
+  </si>
+  <si>
+    <t>TEAD2</t>
+  </si>
+  <si>
+    <t>TEAD4</t>
+  </si>
+  <si>
+    <t>NR0B2</t>
+  </si>
+  <si>
+    <t>ONECUT1</t>
+  </si>
+  <si>
+    <t>YWHAH</t>
+  </si>
+  <si>
+    <t>AHR</t>
+  </si>
+  <si>
+    <t>PIK3CA</t>
+  </si>
+  <si>
+    <t>GATA6</t>
+  </si>
+  <si>
+    <t>FOXA2</t>
+  </si>
+  <si>
+    <t>OTX2</t>
+  </si>
+  <si>
+    <t>PRDM1</t>
+  </si>
+  <si>
+    <t>PAX5</t>
+  </si>
+  <si>
+    <t>ZNF652</t>
+  </si>
+  <si>
+    <t>TCF12</t>
+  </si>
+  <si>
     <t>NS1</t>
   </si>
   <si>
+    <t>SREBF1</t>
+  </si>
+  <si>
+    <t>DYRK1B</t>
+  </si>
+  <si>
+    <t>CEBPA</t>
+  </si>
+  <si>
+    <t>BCL6</t>
+  </si>
+  <si>
+    <t>NR4A1</t>
+  </si>
+  <si>
+    <t>MYBL2</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>BCL3</t>
+  </si>
+  <si>
+    <t>MYOD1</t>
+  </si>
+  <si>
+    <t>STAT1</t>
+  </si>
+  <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>TIMP1</t>
+  </si>
+  <si>
+    <t>USF1</t>
+  </si>
+  <si>
+    <t>NR2F1</t>
+  </si>
+  <si>
+    <t>CD44</t>
+  </si>
+  <si>
+    <t>NANOG</t>
+  </si>
+  <si>
+    <t>MXI1</t>
+  </si>
+  <si>
     <t>IRF3</t>
   </si>
   <si>
+    <t>YWHAG</t>
+  </si>
+  <si>
+    <t>HAS2</t>
+  </si>
+  <si>
     <t>UpRegulated</t>
   </si>
   <si>
     <t>DownRegulated</t>
   </si>
   <si>
+    <t>InferredNode</t>
+  </si>
+  <si>
+    <t>FootprintObserved</t>
+  </si>
+  <si>
     <t>Perturbation</t>
   </si>
   <si>
-    <t>FootprintObserved</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -101,14 +302,569 @@
     <t>type</t>
   </si>
   <si>
+    <t>activates</t>
+  </si>
+  <si>
     <t>inhibits</t>
+  </si>
+  <si>
+    <t>P17612</t>
+  </si>
+  <si>
+    <t>O75081</t>
+  </si>
+  <si>
+    <t>Q16539</t>
+  </si>
+  <si>
+    <t>P15336</t>
+  </si>
+  <si>
+    <t>P17676</t>
+  </si>
+  <si>
+    <t>P27361</t>
+  </si>
+  <si>
+    <t>Q01094</t>
+  </si>
+  <si>
+    <t>Q15648</t>
+  </si>
+  <si>
+    <t>P31749</t>
+  </si>
+  <si>
+    <t>Q13153</t>
+  </si>
+  <si>
+    <t>P42226</t>
+  </si>
+  <si>
+    <t>P27540</t>
+  </si>
+  <si>
+    <t>P06493</t>
+  </si>
+  <si>
+    <t>P23246</t>
+  </si>
+  <si>
+    <t>P49841</t>
+  </si>
+  <si>
+    <t>P06400</t>
+  </si>
+  <si>
+    <t>Q00978</t>
+  </si>
+  <si>
+    <t>Q16254</t>
+  </si>
+  <si>
+    <t>P46937</t>
+  </si>
+  <si>
+    <t>Q15466</t>
+  </si>
+  <si>
+    <t>Q04917</t>
+  </si>
+  <si>
+    <t>P35869</t>
+  </si>
+  <si>
+    <t>P42336</t>
+  </si>
+  <si>
+    <t>Q9Y261</t>
+  </si>
+  <si>
+    <t>O75626</t>
+  </si>
+  <si>
+    <t>Q9Y2D9</t>
+  </si>
+  <si>
+    <t>P36956</t>
+  </si>
+  <si>
+    <t>Q9Y463</t>
+  </si>
+  <si>
+    <t>P49715</t>
+  </si>
+  <si>
+    <t>P22736</t>
+  </si>
+  <si>
+    <t>P08047</t>
+  </si>
+  <si>
+    <t>P01100</t>
+  </si>
+  <si>
+    <t>P01033</t>
+  </si>
+  <si>
+    <t>P16070</t>
+  </si>
+  <si>
+    <t>P61981</t>
+  </si>
+  <si>
+    <t>Q92819</t>
+  </si>
+  <si>
+    <t>O43889</t>
+  </si>
+  <si>
+    <t>P14921</t>
+  </si>
+  <si>
+    <t>Q02080</t>
+  </si>
+  <si>
+    <t>P18847</t>
+  </si>
+  <si>
+    <t>Q13950</t>
+  </si>
+  <si>
+    <t>Q06546</t>
+  </si>
+  <si>
+    <t>P41182</t>
+  </si>
+  <si>
+    <t>P10244</t>
+  </si>
+  <si>
+    <t>Q92908</t>
+  </si>
+  <si>
+    <t>Q16656</t>
+  </si>
+  <si>
+    <t>Q13330</t>
+  </si>
+  <si>
+    <t>Q9H165</t>
+  </si>
+  <si>
+    <t>P78545</t>
+  </si>
+  <si>
+    <t>P42224</t>
+  </si>
+  <si>
+    <t>P39880</t>
+  </si>
+  <si>
+    <t>Q15233</t>
+  </si>
+  <si>
+    <t>Q14494</t>
+  </si>
+  <si>
+    <t>P20749</t>
+  </si>
+  <si>
+    <t>P21675</t>
+  </si>
+  <si>
+    <t>P15172</t>
+  </si>
+  <si>
+    <t>P50539</t>
+  </si>
+  <si>
+    <t>Q15562</t>
+  </si>
+  <si>
+    <t>Q15561</t>
+  </si>
+  <si>
+    <t>Q9UBC0</t>
+  </si>
+  <si>
+    <t>P32243</t>
+  </si>
+  <si>
+    <t>Q02548</t>
+  </si>
+  <si>
+    <t>Q99081</t>
+  </si>
+  <si>
+    <t>P22415</t>
+  </si>
+  <si>
+    <t>P10589</t>
+  </si>
+  <si>
+    <t>Q9H9S0</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=40148</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=191</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=187581</t>
+  </si>
+  <si>
+    <t>http://dip.doe-mbi.ucla.edu/dip/DIPview.cgi?IK=199340</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>PhosphoNetworks;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;IntAct;KEA;MIMP;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD;Lit-BM-17;SIGNOR</t>
+  </si>
+  <si>
+    <t>KEGG-MEDICUS</t>
+  </si>
+  <si>
+    <t>ACSN;BEL-Large-Corpus_ProtMapper;BioGRID;CA1;CancerCellMap;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;InnateDB;KEA;KEGG-MEDICUS;MIMP;NCI-PID_ProtMapper;NetworKIN_KEA;PhosphoNetworks;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;Reactome_ProtMapper;SIGNOR;SIGNOR_ProtMapper;SignaLink3;Sparser_ProtMapper;Wang;dbPTM;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>KEA;NetworKIN_KEA;Wang</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>PhosphoSite;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;IntAct;KEA;MIMP;NetworKIN_KEA;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD;InnateDB;Wang</t>
+  </si>
+  <si>
+    <t>Lit-BM-17;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SPIKE</t>
+  </si>
+  <si>
+    <t>SPIKE</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;InnateDB;MIMP;NCI-PID_ProtMapper;PhosphoPoint;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;Reactome_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>BEL-Large-Corpus_ProtMapper;HPRD;HPRD_MIMP;KEA;MIMP;NCI-PID_ProtMapper;PhosphoNetworks;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;SPIKE;Wang;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NCI-PID_ProtMapper;PhosphoPoint;PhosphoSite_KEA;PhosphoSite_MIMP;ProtMapper;SIGNOR;SIGNOR_ProtMapper;SignaLink3;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>SIGNOR</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Sparser_ProtMapper;Wang;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;KEA;MIMP;PhosphoNetworks;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>KEA;MIMP;PhosphoNetworks;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>KEA;MIMP;PhosphoNetworks;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;PhosphoSite_noref;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>ACSN;SPIKE</t>
+  </si>
+  <si>
+    <t>HPRD;Wang</t>
+  </si>
+  <si>
+    <t>ACSN;PhosphoNetworks;SignaLink3;Wang</t>
+  </si>
+  <si>
+    <t>Adhesome;HPRD;InnateDB;KEA;Kinexus_KEA;Lit-BM-17;PhosphoPoint;Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>MIMP;NCI-PID_ProtMapper;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;Wang</t>
+  </si>
+  <si>
+    <t>ELM;HPRD;HPRD-phos;HPRD_KEA;HPRD_MIMP;KEA;MIMP;NetworKIN_KEA;PhosphoPoint;PhosphoSite;PhosphoSite_KEA;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;Reactome_ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>Adhesome;PhosphoNetworks;Wang</t>
+  </si>
+  <si>
+    <t>InnateDB;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Wang;iPTMnet</t>
+  </si>
+  <si>
+    <t>ProtMapper;SIGNOR;Sparser_ProtMapper</t>
+  </si>
+  <si>
+    <t>ACSN;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;InnateDB;IntAct;KEGG-MEDICUS;Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM</t>
+  </si>
+  <si>
+    <t>KEA;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;RLIMS-P_ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM;phosphoELM_KEA;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;REACH_ProtMapper;SIGNOR;SIGNOR_ProtMapper;Sparser_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>HPRD;IntAct;Lit-BM-17;SPIKE</t>
+  </si>
+  <si>
+    <t>HPRD_MIMP;MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet;phosphoELM_MIMP</t>
+  </si>
+  <si>
+    <t>MIMP;PhosphoSite;PhosphoSite_MIMP;PhosphoSite_ProtMapper;ProtMapper;SIGNOR;SIGNOR_ProtMapper;iPTMnet</t>
+  </si>
+  <si>
+    <t>HPRD;PhosphoNetworks;PhosphoPoint;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;DIP;ELM;HPRD;InnateDB;IntAct;LMPID;Lit-BM-17;SIGNOR;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>DIP;HPRD;Lit-BM-17;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;Wang</t>
+  </si>
+  <si>
+    <t>HPRD;SIGNOR</t>
+  </si>
+  <si>
+    <t>ACSN;SPIKE;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;DIP;HPRD;HuRI;IntAct;Lit-BM-17;SIGNOR</t>
+  </si>
+  <si>
+    <t>DIP;HPRD;IntAct;SIGNOR</t>
+  </si>
+  <si>
+    <t>SignaLink3</t>
+  </si>
+  <si>
+    <t>BioGRID;Lit-BM-17;ProtMapper;SIGNOR;Sparser_ProtMapper;Wang</t>
+  </si>
+  <si>
+    <t>BioGRID;HPRD;SIGNOR</t>
+  </si>
+  <si>
+    <t>DOMINO;HPRD;IntAct;SIGNOR</t>
+  </si>
+  <si>
+    <t>Baccin2019;EMBRACE;Fantom5_LRdb;HPMR;HPMR_LRdb;LRdb;Ramilowski2015;Ramilowski2015_Baccin2019;Wang;iTALK</t>
+  </si>
+  <si>
+    <t>HPRD-phos:12054501;HPRD-phos:18669648;HPRD-phos:18691976;HPRD:12147701;IntAct:11035810;KEA:11035810;KEA:12054501;KEA:12147701;KEA:15845746;KEA:16039586;KEA:16522636;KEA:16543730;KEA:8524413;ProtMapper:19836308;SIGNOR:19836308;iPTMnet:11035810;iPTMnet:12054501;iPTMnet:18669648;iPTMnet:18691976;iPTMnet:19836308</t>
+  </si>
+  <si>
+    <t>PhosphoSite:16381800;ProtMapper:16381800;SIGNOR:16381800;iPTMnet:16381800</t>
+  </si>
+  <si>
+    <t>HPRD:16966434;Lit-BM-17:16966434;SIGNOR:20116376</t>
+  </si>
+  <si>
+    <t>ACSN:11274345;ACSN:15140942;ACSN:15187187;ACSN:16393692;ACSN:19436832;ACSN:20506250;ACSN:21614932;BioGRID:12118074;BioGRID:26987986;BioGRID:9753474;CA1:12024021;CA1:8663524;CancerCellMap:10085140;CancerCellMap:11259586;HPRD-phos:10085140;HPRD-phos:11259586;HPRD-phos:12110590;HPRD-phos:18669648;HPRD-phos:18767875;HPRD-phos:19413330;HPRD-phos:19651622;HPRD-phos:20068231;HPRD-phos:7535770;HPRD:10085140;HPRD:11259586;HPRD:12110590;HPRD:7535770;InnateDB:10581204;InnateDB:15569672;InnateDB:9305639;InnateDB:9707433;KEA:10085140;KEA:10777545;KEA:11259586;KEA:11896587;KEA:11971971;KEA:12110590;KEA:12788955;KEA:17081983;KEA:17570479;KEA:602896;KEA:7535770;KEA:7737129;PhosphoSite:10777545;PhosphoSite:10821277;PhosphoSite:10909971;PhosphoSite:11060298;PhosphoSite:11078583;PhosphoSite:11781825;PhosphoSite:15304344;PhosphoSite:17548358;PhosphoSite:21098032;PhosphoSite:22037767;PhosphoSite:26359454;PhosphoSite:7535770;PhosphoSite:7737129;PhosphoSite:7824938;ProtMapper:10085140;ProtMapper:10777545;ProtMapper:10903740;ProtMapper:11566021;ProtMapper:12110590;ProtMapper:15212693;ProtMapper:15304344;ProtMapper:17079470;ProtMapper:17258390;ProtMapper:19647037;ProtMapper:20068231;ProtMapper:27726305;ProtMapper:7535770;ProtMapper:7737130;ProtMapper:7839144;SIGNOR:10085140;SIGNOR:12110590;SIGNOR:20068231;SignaLink3:10085140;SignaLink3:11259586;SignaLink3:12110590;SignaLink3:18988627;SignaLink3:21071413;SignaLink3:23331499;SignaLink3:7535770;dbPTM:12110590;dbPTM:17081983;dbPTM:18669648;dbPTM:19413330;dbPTM:19690332;dbPTM:9430721;iPTMnet:10085140;iPTMnet:11259586;iPTMnet:12110590;iPTMnet:18669648;iPTMnet:18767875;iPTMnet:19413330;iPTMnet:19651622;iPTMnet:20068231;iPTMnet:7535770;phosphoELM:11896587;phosphoELM:11971971</t>
+  </si>
+  <si>
+    <t>KEA:17570479</t>
+  </si>
+  <si>
+    <t>CA1:10531066</t>
+  </si>
+  <si>
+    <t>PhosphoSite:21303975;PhosphoSite:26822034;ProtMapper:17726008;ProtMapper:18451303;SIGNOR:17726008;SIGNOR:18451303;iPTMnet:17726008;iPTMnet:18451303</t>
+  </si>
+  <si>
+    <t>IntAct:17380128;IntAct:20871633;KEA:17570479;PhosphoSite:11439341;PhosphoSite:15355984;PhosphoSite:1756735;PhosphoSite:17599043;PhosphoSite:17996702;PhosphoSite:20223825;PhosphoSite:20871633;PhosphoSite:22279936;PhosphoSite:22895174;PhosphoSite:27642049;PhosphoSite:9190208;ProtMapper:20871633;SIGNOR:20871633;iPTMnet:20871633</t>
+  </si>
+  <si>
+    <t>HPRD:10910078;InnateDB:12384504</t>
+  </si>
+  <si>
+    <t>Lit-BM-17:20211142;Lit-BM-17:23661758;SPIKE:12833146</t>
+  </si>
+  <si>
+    <t>HPRD:11668178;SPIKE:15713650</t>
+  </si>
+  <si>
+    <t>SPIKE:16959612</t>
+  </si>
+  <si>
+    <t>InnateDB:15192015;ProtMapper:10777545;ProtMapper:12110590;ProtMapper:15192015;ProtMapper:15304344;ProtMapper:19647037;ProtMapper:20068231;SIGNOR:12110590;SIGNOR:20068231;iPTMnet:12110590;iPTMnet:20068231</t>
+  </si>
+  <si>
+    <t>HPRD:15878863;KEA:12213825;KEA:15367685;KEA:16009338;KEA:8384717;ProtMapper:10995751;ProtMapper:12048245;ProtMapper:15212693;ProtMapper:15878863;ProtMapper:19327116;SIGNOR:19327116;SIGNOR:19723873;SPIKE:19443782;iPTMnet:12213825;iPTMnet:19327116;phosphoELM:12213825</t>
+  </si>
+  <si>
+    <t>HPRD:11948414;HPRD:12048211;KEA:11948414;KEA:12048211;KEA:8761310;ProtMapper:11948414;SIGNOR:11948414;SignaLink3:11948414;SignaLink3:12048211;SignaLink3:23331499;iPTMnet:11948414;iPTMnet:12048211</t>
+  </si>
+  <si>
+    <t>SPIKE:19114066</t>
+  </si>
+  <si>
+    <t>SIGNOR:14967450;SIGNOR:22802261;SIGNOR:23616010</t>
+  </si>
+  <si>
+    <t>PhosphoSite:19264160;PhosphoSite:19801668;PhosphoSite:21965325;PhosphoSite:25122769;PhosphoSite:25187572;PhosphoSite:25867060;PhosphoSite:27687725;ProtMapper:19801668;ProtMapper:29057206;SIGNOR:19801668;iPTMnet:19801668</t>
+  </si>
+  <si>
+    <t>KEA:12356758;KEA:16314496;ProtMapper:12356758;SIGNOR:12356758;iPTMnet:12356758;iPTMnet:16314496;phosphoELM:12356758;phosphoELM:16314496</t>
+  </si>
+  <si>
+    <t>KEA:16039586;ProtMapper:16039586;SIGNOR:16039586;iPTMnet:16039586;phosphoELM:16039586</t>
+  </si>
+  <si>
+    <t>KEA:14701740;PhosphoSite:14701740;PhosphoSite:20101026;PhosphoSite:26515730;ProtMapper:14701740;SIGNOR:14701740;iPTMnet:14701740;phosphoELM:14701740</t>
+  </si>
+  <si>
+    <t>ProtMapper:9649500;SIGNOR:9649500;iPTMnet:9649500</t>
+  </si>
+  <si>
+    <t>ACSN:10766737;ACSN:8760872;SPIKE:16299810</t>
+  </si>
+  <si>
+    <t>HPRD:11724781</t>
+  </si>
+  <si>
+    <t>ACSN:16537363;ACSN:17052453;ACSN:17680028;ACSN:17688959;ACSN:19575820;ACSN:20016067;ACSN:20214616;ACSN:20398329;SignaLink3:16537363;SignaLink3:23331499</t>
+  </si>
+  <si>
+    <t>Adhesome:11435472;Adhesome:12138087;Adhesome:14585966;Adhesome:14749719;HPRD:12138087;InnateDB:14585966;KEA:9032240;Lit-BM-17:14749719;Lit-BM-17:23397142;Lit-BM-17:24886428;iPTMnet:14585966</t>
+  </si>
+  <si>
+    <t>SPIKE:16230352</t>
+  </si>
+  <si>
+    <t>PhosphoSite:14500912;PhosphoSite:23416070;ProtMapper:14500912;SIGNOR:14500912</t>
+  </si>
+  <si>
+    <t>ELM:11274386;HPRD-phos:11274386;HPRD-phos:18669648;HPRD:11274386;KEA:11274386;KEA:16223362;KEA:17570479;PhosphoSite:25581517;PhosphoSite:26155943;ProtMapper:11274386;SIGNOR:11274386;iPTMnet:11274386;iPTMnet:18669648</t>
+  </si>
+  <si>
+    <t>Adhesome:10980699</t>
+  </si>
+  <si>
+    <t>InnateDB:17491012;PhosphoSite:17491012;ProtMapper:17491012;ProtMapper:24066765;SIGNOR:17491012;iPTMnet:17491012</t>
+  </si>
+  <si>
+    <t>ProtMapper:28430601;SIGNOR:10982806</t>
+  </si>
+  <si>
+    <t>ACSN:10403805;ACSN:11566883;ACSN:11708773;ACSN:12080085;ACSN:12490555;ACSN:12829734;ACSN:13130303;ACSN:15111329;ACSN:15181457;ACSN:15451019;ACSN:16716598;ACSN:16887934;ACSN:17615296;ACSN:1823643;ACSN:21041997;ACSN:7539918;ACSN:8943284;ACSN:9157999;ACSN:9159130;ACSN:9278421;ACSN:9746763</t>
+  </si>
+  <si>
+    <t>BioGRID:18096572;BioGRID:19380484;BioGRID:20006590;BioGRID:22138065;BioGRID:7488247;BioGRID:8065341;BioGRID:8384309;BioGRID:8396713;BioGRID:8619634;BioGRID:8621524;BioGRID:8631989;BioGRID:8816435;HPRD:11768231;HPRD:12024042;HPRD:7488247;HPRD:7628454;HPRD:8384309;InnateDB:17823304;IntAct:9704006;Lit-BM-17:10395741;Lit-BM-17:11259609;Lit-BM-17:18096572;Lit-BM-17:19390533;Lit-BM-17:20006590;Lit-BM-17:22138065;Lit-BM-17:7488247;Lit-BM-17:7628454;Lit-BM-17:8384309;Lit-BM-17:9704006;Lit-BM-17:9887096</t>
+  </si>
+  <si>
+    <t>ProtMapper:11584018;SIGNOR:11584018;iPTMnet:11584018;phosphoELM:11584018</t>
+  </si>
+  <si>
+    <t>KEA:16880739;PhosphoSite:16880739;ProtMapper:16880739;SIGNOR:16880739;iPTMnet:16880739;phosphoELM:16880739</t>
+  </si>
+  <si>
+    <t>ProtMapper:20150555;ProtMapper:22266860;ProtMapper:25398907;ProtMapper:28831131;SIGNOR:20150555;iPTMnet:20150555</t>
+  </si>
+  <si>
+    <t>HPRD:12403470;IntAct:21988832;IntAct:25959826;IntAct:30021884;Lit-BM-17:11259580;Lit-BM-17:12403470;Lit-BM-17:17452459;Lit-BM-17:17507659;Lit-BM-17:18042045;Lit-BM-17:21988832;SPIKE:10858305;SPIKE:17145710;SPIKE:20421735</t>
+  </si>
+  <si>
+    <t>PhosphoSite:20932480;ProtMapper:20932480;SIGNOR:20932480;iPTMnet:20932480</t>
+  </si>
+  <si>
+    <t>PhosphoSite:23623971;ProtMapper:23623971;SIGNOR:23623971;iPTMnet:23623971</t>
+  </si>
+  <si>
+    <t>HPRD:15469820</t>
+  </si>
+  <si>
+    <t>BioGRID:10393912;BioGRID:12963846;BioGRID:15670817;BioGRID:16249186;BioGRID:18216119;BioGRID:22768064;BioGRID:28559429;BioGRID:8346196;BioGRID:9553123;DIP:12598654;DIP:23472054;DIP:7739537;DIP:8255752;DIP:8657117;DIP:8816798;ELM:8346196;ELM:8413249;HPRD:11583618;HPRD:1388726;HPRD:16374512;HPRD:9125176;InnateDB:10523633;InnateDB:15485920;InnateDB:20839231;IntAct:11713253;IntAct:16249186;IntAct:16374512;IntAct:17380128;IntAct:19249677;IntAct:20871633;IntAct:23472054;LMPID:8346196;LMPID:8413249;Lit-BM-17:10207050;Lit-BM-17:10393912;Lit-BM-17:10499802;Lit-BM-17:10869426;Lit-BM-17:11090181;Lit-BM-17:11713253;Lit-BM-17:11839806;Lit-BM-17:12096339;Lit-BM-17:12397079;Lit-BM-17:12598654;Lit-BM-17:12947005;Lit-BM-17:12963846;Lit-BM-17:15485814;Lit-BM-17:15485920;Lit-BM-17:15670817;Lit-BM-17:15837424;Lit-BM-17:16249186;Lit-BM-17:16360038;Lit-BM-17:16374512;Lit-BM-17:16766265;Lit-BM-17:17380128;Lit-BM-17:18216119;Lit-BM-17:18391203;Lit-BM-17:19058874;Lit-BM-17:19249677;Lit-BM-17:19477924;Lit-BM-17:20871633;Lit-BM-17:22078878;Lit-BM-17:22768064;Lit-BM-17:23001041;Lit-BM-17:25257171;Lit-BM-17:28074012;Lit-BM-17:7739537;Lit-BM-17:7828850;Lit-BM-17:7958924;Lit-BM-17:8230483;Lit-BM-17:8255752;Lit-BM-17:8346196;Lit-BM-17:8626527;Lit-BM-17:8657117;Lit-BM-17:8816798;Lit-BM-17:8896460;Lit-BM-17:9315635;Lit-BM-17:9400991;Lit-BM-17:9422723;Lit-BM-17:9468140;Lit-BM-17:9501179;Lit-BM-17:9553123;Lit-BM-17:9632788;SIGNOR:8255752;SPIKE:11420730;SPIKE:17488475</t>
+  </si>
+  <si>
+    <t>DIP:7724524;HPRD:7724524;HPRD:9242374;HPRD:9858607;Lit-BM-17:11126356;Lit-BM-17:7724524;Lit-BM-17:9242374;Lit-BM-17:9858607</t>
+  </si>
+  <si>
+    <t>BioGRID:10850422;HPRD:10850422;HPRD:7732011</t>
+  </si>
+  <si>
+    <t>HPRD:8381715;SIGNOR:21902831</t>
+  </si>
+  <si>
+    <t>ACSN:15510213;ACSN:16135806;SPIKE:15510213</t>
+  </si>
+  <si>
+    <t>ACSN:10766737;ACSN:8760872;SPIKE:8334989</t>
+  </si>
+  <si>
+    <t>BioGRID:25973055;DIP:20368466;DIP:25751139;HPRD:11358867;IntAct:20368466;Lit-BM-17:25973055;Lit-BM-17:26578655;SIGNOR:23431053</t>
+  </si>
+  <si>
+    <t>DIP:25751139;DIP:25751140;DIP:26592798;HPRD:11358867;IntAct:24525233;IntAct:25751139;IntAct:25751140;IntAct:26592798;SIGNOR:23431053</t>
+  </si>
+  <si>
+    <t>SignaLink3:18459945</t>
+  </si>
+  <si>
+    <t>SIGNOR:21084559</t>
+  </si>
+  <si>
+    <t>BioGRID:21041639;BioGRID:25793261;Lit-BM-17:19117013;Lit-BM-17:21041639;Lit-BM-17:21816939;ProtMapper:24950409;SIGNOR:12167717</t>
+  </si>
+  <si>
+    <t>BioGRID:10623575;HPRD:10623575;SIGNOR:10623575</t>
+  </si>
+  <si>
+    <t>SIGNOR:7862113</t>
+  </si>
+  <si>
+    <t>SignaLink3:23331499;SignaLink3:9130711</t>
+  </si>
+  <si>
+    <t>HPRD:10224053;SPIKE:18068676</t>
+  </si>
+  <si>
+    <t>SPIKE:16603733</t>
+  </si>
+  <si>
+    <t>DOMINO:15324660;HPRD:15324660;IntAct:15324660;IntAct:17353931;SIGNOR:21084559</t>
+  </si>
+  <si>
+    <t>Baccin2019:1694723;HPMR:1694723;LRdb:1694723</t>
+  </si>
+  <si>
+    <t>ppi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +879,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,16 +920,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -489,10 +1258,736 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -510,64 +2005,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -578,13 +2073,5355 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>222</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>223</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>172</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>224</v>
+      </c>
+      <c r="R8">
+        <v>99</v>
+      </c>
+      <c r="S8">
+        <v>58</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>226</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>227</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>230</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>231</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>233</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>234</v>
+      </c>
+      <c r="R20">
+        <v>16</v>
+      </c>
+      <c r="S20">
+        <v>11</v>
+      </c>
+      <c r="T20">
+        <v>11</v>
+      </c>
+      <c r="U20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>235</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>9</v>
+      </c>
+      <c r="U21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>236</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>237</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>238</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>239</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>240</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>167</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>241</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>242</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>167</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>243</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>244</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>245</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>167</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>246</v>
+      </c>
+      <c r="R36">
+        <v>11</v>
+      </c>
+      <c r="S36">
+        <v>7</v>
+      </c>
+      <c r="T36">
+        <v>8</v>
+      </c>
+      <c r="U36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>167</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>247</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>167</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>167</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>167</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>248</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>249</v>
+      </c>
+      <c r="R43">
+        <v>13</v>
+      </c>
+      <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>250</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>167</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>251</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="U46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>252</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>253</v>
+      </c>
+      <c r="R48">
+        <v>21</v>
+      </c>
+      <c r="S48">
+        <v>21</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>254</v>
+      </c>
+      <c r="R49">
+        <v>30</v>
+      </c>
+      <c r="S49">
+        <v>21</v>
+      </c>
+      <c r="T49">
+        <v>7</v>
+      </c>
+      <c r="U49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>255</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>256</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>7</v>
+      </c>
+      <c r="U51" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>257</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>258</v>
+      </c>
+      <c r="R53">
+        <v>13</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53">
+        <v>4</v>
+      </c>
+      <c r="U53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>167</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>259</v>
+      </c>
+      <c r="R55">
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>260</v>
+      </c>
+      <c r="R56">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>261</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>4</v>
+      </c>
+      <c r="U57" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P58" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>262</v>
+      </c>
+      <c r="R58">
+        <v>85</v>
+      </c>
+      <c r="S58">
+        <v>59</v>
+      </c>
+      <c r="T58">
+        <v>11</v>
+      </c>
+      <c r="U58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P59" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>263</v>
+      </c>
+      <c r="R59">
+        <v>8</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>4</v>
+      </c>
+      <c r="U59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>264</v>
+      </c>
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>265</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>167</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>266</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>267</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>167</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P66" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>268</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>7</v>
+      </c>
+      <c r="U66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P67" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>269</v>
+      </c>
+      <c r="R67">
+        <v>9</v>
+      </c>
+      <c r="S67">
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>4</v>
+      </c>
+      <c r="U67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>270</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>167</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>271</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>167</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>167</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>272</v>
+      </c>
+      <c r="R73">
+        <v>7</v>
+      </c>
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>5</v>
+      </c>
+      <c r="U73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>273</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>167</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>167</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>167</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>167</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>274</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>63</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>275</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>276</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>277</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>167</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H86" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>167</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>167</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>167</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>278</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>3</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>279</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>7</v>
+      </c>
+      <c r="U90" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O58" r:id="rId1"/>
+    <hyperlink ref="O59" r:id="rId2"/>
+    <hyperlink ref="O66" r:id="rId3"/>
+    <hyperlink ref="O67" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>